--- a/Data/cleaned_data/alliances.xlsx
+++ b/Data/cleaned_data/alliances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V236"/>
+  <dimension ref="A1:W236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,90 +456,95 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>century</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NAFTA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>NATO</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>NAFTA</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Quad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>AUKUS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PIF</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>OAS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>UNSC</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>UNHRC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>IMF</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ANZUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>NORAD</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>APEC</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>G7</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>G20</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>WTO</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>TPP</t>
         </is>
@@ -562,8 +567,10 @@
       <c r="D2" t="n">
         <v>1400</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -614,6 +621,9 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,8 +644,10 @@
       <c r="D3" t="n">
         <v>2301</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -686,6 +698,9 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,8 +721,10 @@
       <c r="D4" t="n">
         <v>2096</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -758,6 +775,9 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -778,8 +798,10 @@
       <c r="D5" t="n">
         <v>1963</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -830,6 +852,9 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,8 +875,10 @@
       <c r="D6" t="n">
         <v>2913</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -902,6 +929,9 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -922,8 +952,10 @@
       <c r="D7" t="n">
         <v>1984</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -974,6 +1006,9 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -994,8 +1029,10 @@
       <c r="D8" t="n">
         <v>2865</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1046,6 +1083,9 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1066,8 +1106,10 @@
       <c r="D9" t="n">
         <v>2057</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1118,6 +1160,9 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1138,8 +1183,10 @@
       <c r="D10" t="n">
         <v>2218</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1190,6 +1237,9 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1210,8 +1260,10 @@
       <c r="D11" t="n">
         <v>1505</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1700s</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1262,6 +1314,9 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1282,8 +1337,10 @@
       <c r="D12" t="n">
         <v>1372</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1334,6 +1391,9 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1354,8 +1414,10 @@
       <c r="D13" t="n">
         <v>3224</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1406,6 +1468,9 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1426,8 +1491,10 @@
       <c r="D14" t="n">
         <v>2199</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1478,6 +1545,9 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,11 +1568,13 @@
       <c r="D15" t="n">
         <v>2277</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1550,6 +1622,9 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1570,8 +1645,10 @@
       <c r="D16" t="n">
         <v>2099</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1622,6 +1699,9 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,8 +1722,10 @@
       <c r="D17" t="n">
         <v>2941</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1694,6 +1776,9 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1714,8 +1799,10 @@
       <c r="D18" t="n">
         <v>2866</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1766,6 +1853,9 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,11 +1876,13 @@
       <c r="D19" t="n">
         <v>2392</v>
       </c>
-      <c r="E19" t="n">
-        <v>1</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1838,6 +1930,9 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1858,8 +1953,10 @@
       <c r="D20" t="n">
         <v>2686</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1910,6 +2007,9 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1930,8 +2030,10 @@
       <c r="D21" t="n">
         <v>1831</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1982,6 +2084,9 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2002,8 +2107,10 @@
       <c r="D22" t="n">
         <v>2446</v>
       </c>
-      <c r="E22" t="n">
-        <v>2</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2054,6 +2161,9 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2074,8 +2184,10 @@
       <c r="D23" t="n">
         <v>2275</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2126,6 +2238,9 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2146,8 +2261,10 @@
       <c r="D24" t="n">
         <v>3242</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2198,6 +2315,9 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2218,8 +2338,10 @@
       <c r="D25" t="n">
         <v>3258</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2270,6 +2392,9 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2290,8 +2415,10 @@
       <c r="D26" t="n">
         <v>2114</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2342,6 +2469,9 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2362,8 +2492,10 @@
       <c r="D27" t="n">
         <v>3154</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2414,6 +2546,9 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2434,8 +2569,10 @@
       <c r="D28" t="n">
         <v>3366</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2486,6 +2623,9 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2506,8 +2646,10 @@
       <c r="D29" t="n">
         <v>4427</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2558,6 +2700,9 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,8 +2723,10 @@
       <c r="D30" t="n">
         <v>4377</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2630,6 +2777,9 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2650,8 +2800,10 @@
       <c r="D31" t="n">
         <v>4711</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2702,6 +2854,9 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,8 +2877,10 @@
       <c r="D32" t="n">
         <v>3441</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2774,6 +2931,9 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2794,8 +2954,10 @@
       <c r="D33" t="n">
         <v>5823</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2846,6 +3008,9 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2866,8 +3031,10 @@
       <c r="D34" t="n">
         <v>4734</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2918,6 +3085,9 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2938,8 +3108,10 @@
       <c r="D35" t="n">
         <v>6382</v>
       </c>
-      <c r="E35" t="n">
-        <v>2</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2990,6 +3162,9 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3010,8 +3185,10 @@
       <c r="D36" t="n">
         <v>8418</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3062,6 +3239,9 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3082,8 +3262,10 @@
       <c r="D37" t="n">
         <v>9000</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3134,6 +3316,9 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3154,8 +3339,10 @@
       <c r="D38" t="n">
         <v>7745</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3206,6 +3393,9 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3226,8 +3416,10 @@
       <c r="D39" t="n">
         <v>6983</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3278,6 +3470,9 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3298,8 +3493,10 @@
       <c r="D40" t="n">
         <v>7310</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3350,6 +3547,9 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3370,8 +3570,10 @@
       <c r="D41" t="n">
         <v>10523</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3422,6 +3624,9 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3442,8 +3647,10 @@
       <c r="D42" t="n">
         <v>15072</v>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3494,6 +3701,9 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,8 +3724,10 @@
       <c r="D43" t="n">
         <v>7189</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3566,6 +3778,9 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3586,8 +3801,10 @@
       <c r="D44" t="n">
         <v>7875</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3638,6 +3855,9 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,8 +3878,10 @@
       <c r="D45" t="n">
         <v>7901</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -3710,6 +3932,9 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3730,8 +3955,10 @@
       <c r="D46" t="n">
         <v>13446</v>
       </c>
-      <c r="E46" t="n">
-        <v>5</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -3782,6 +4009,9 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3802,8 +4032,10 @@
       <c r="D47" t="n">
         <v>10809</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -3854,6 +4086,9 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3874,8 +4109,10 @@
       <c r="D48" t="n">
         <v>12355</v>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3926,6 +4163,9 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3946,8 +4186,10 @@
       <c r="D49" t="n">
         <v>11435</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -3998,6 +4240,9 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4018,8 +4263,10 @@
       <c r="D50" t="n">
         <v>11475</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -4070,6 +4317,9 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4090,8 +4340,10 @@
       <c r="D51" t="n">
         <v>13416</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4142,6 +4394,9 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4162,8 +4417,10 @@
       <c r="D52" t="n">
         <v>8976</v>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -4214,6 +4471,9 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4234,8 +4494,10 @@
       <c r="D53" t="n">
         <v>8240</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -4286,6 +4548,9 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4306,8 +4571,10 @@
       <c r="D54" t="n">
         <v>8401</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -4358,6 +4625,9 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4378,8 +4648,10 @@
       <c r="D55" t="n">
         <v>8026</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -4430,6 +4702,9 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,8 +4725,10 @@
       <c r="D56" t="n">
         <v>9309</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -4502,6 +4779,9 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4522,8 +4802,10 @@
       <c r="D57" t="n">
         <v>16107</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -4532,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4574,7 +4856,10 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4594,8 +4879,10 @@
       <c r="D58" t="n">
         <v>18218</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -4646,6 +4933,9 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4666,8 +4956,10 @@
       <c r="D59" t="n">
         <v>16407</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -4718,6 +5010,9 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4738,8 +5033,10 @@
       <c r="D60" t="n">
         <v>21287</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -4790,6 +5087,9 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4810,8 +5110,10 @@
       <c r="D61" t="n">
         <v>7617</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -4862,6 +5164,9 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4882,8 +5187,10 @@
       <c r="D62" t="n">
         <v>8318</v>
       </c>
-      <c r="E62" t="n">
-        <v>1</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -4934,6 +5241,9 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4954,8 +5264,10 @@
       <c r="D63" t="n">
         <v>13243</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -5006,6 +5318,9 @@
         <v>0</v>
       </c>
       <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5026,8 +5341,10 @@
       <c r="D64" t="n">
         <v>9922</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -5078,6 +5395,9 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5098,8 +5418,10 @@
       <c r="D65" t="n">
         <v>9587</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -5150,6 +5472,9 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5170,8 +5495,10 @@
       <c r="D66" t="n">
         <v>10134</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -5222,6 +5549,9 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5242,8 +5572,10 @@
       <c r="D67" t="n">
         <v>11610</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -5294,6 +5626,9 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5314,8 +5649,10 @@
       <c r="D68" t="n">
         <v>10473</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -5366,6 +5703,9 @@
         <v>0</v>
       </c>
       <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,8 +5726,10 @@
       <c r="D69" t="n">
         <v>13651</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -5438,6 +5780,9 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5458,8 +5803,10 @@
       <c r="D70" t="n">
         <v>16347</v>
       </c>
-      <c r="E70" t="n">
-        <v>1</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -5510,6 +5857,9 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,8 +5880,10 @@
       <c r="D71" t="n">
         <v>12336</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -5582,6 +5934,9 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5602,8 +5957,10 @@
       <c r="D72" t="n">
         <v>14025</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -5654,6 +6011,9 @@
         <v>0</v>
       </c>
       <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5674,8 +6034,10 @@
       <c r="D73" t="n">
         <v>6976</v>
       </c>
-      <c r="E73" t="n">
-        <v>1</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -5726,6 +6088,9 @@
         <v>0</v>
       </c>
       <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5746,8 +6111,10 @@
       <c r="D74" t="n">
         <v>8392</v>
       </c>
-      <c r="E74" t="n">
-        <v>2</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -5798,6 +6165,9 @@
         <v>0</v>
       </c>
       <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5818,8 +6188,10 @@
       <c r="D75" t="n">
         <v>6111</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -5870,6 +6242,9 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5890,8 +6265,10 @@
       <c r="D76" t="n">
         <v>5863</v>
       </c>
-      <c r="E76" t="n">
-        <v>2</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -5942,6 +6319,9 @@
         <v>0</v>
       </c>
       <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5962,8 +6342,10 @@
       <c r="D77" t="n">
         <v>9218</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -6014,6 +6396,9 @@
         <v>0</v>
       </c>
       <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6034,8 +6419,10 @@
       <c r="D78" t="n">
         <v>7127</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -6086,6 +6473,9 @@
         <v>0</v>
       </c>
       <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6106,8 +6496,10 @@
       <c r="D79" t="n">
         <v>11981</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -6158,6 +6550,9 @@
         <v>0</v>
       </c>
       <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6178,8 +6573,10 @@
       <c r="D80" t="n">
         <v>9817</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -6230,6 +6627,9 @@
         <v>0</v>
       </c>
       <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6250,8 +6650,10 @@
       <c r="D81" t="n">
         <v>7699</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -6302,6 +6704,9 @@
         <v>0</v>
       </c>
       <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6322,8 +6727,10 @@
       <c r="D82" t="n">
         <v>8733</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -6374,6 +6781,9 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6394,8 +6804,10 @@
       <c r="D83" t="n">
         <v>6455</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -6446,6 +6858,9 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,8 +6881,10 @@
       <c r="D84" t="n">
         <v>3923</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -6518,6 +6935,9 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6538,8 +6958,10 @@
       <c r="D85" t="n">
         <v>10019</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -6590,6 +7012,9 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6610,8 +7035,10 @@
       <c r="D86" t="n">
         <v>9192</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -6662,6 +7089,9 @@
         <v>0</v>
       </c>
       <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6682,8 +7112,10 @@
       <c r="D87" t="n">
         <v>12200</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -6734,6 +7166,9 @@
         <v>0</v>
       </c>
       <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6754,8 +7189,10 @@
       <c r="D88" t="n">
         <v>6790</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -6806,6 +7243,9 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6826,8 +7266,10 @@
       <c r="D89" t="n">
         <v>8017</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -6878,6 +7320,9 @@
         <v>0</v>
       </c>
       <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6898,8 +7343,10 @@
       <c r="D90" t="n">
         <v>7878</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -6950,6 +7397,9 @@
         <v>0</v>
       </c>
       <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6970,8 +7420,10 @@
       <c r="D91" t="n">
         <v>11632</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -7022,6 +7474,9 @@
         <v>0</v>
       </c>
       <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7042,8 +7497,10 @@
       <c r="D92" t="n">
         <v>6589</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -7094,6 +7551,9 @@
         <v>0</v>
       </c>
       <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7114,11 +7574,13 @@
       <c r="D93" t="n">
         <v>3519</v>
       </c>
-      <c r="E93" t="n">
-        <v>2</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -7166,6 +7628,9 @@
         <v>0</v>
       </c>
       <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7186,8 +7651,10 @@
       <c r="D94" t="n">
         <v>2684</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -7238,6 +7705,9 @@
         <v>0</v>
       </c>
       <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,8 +7728,10 @@
       <c r="D95" t="n">
         <v>3136</v>
       </c>
-      <c r="E95" t="n">
-        <v>0</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -7310,6 +7782,9 @@
         <v>0</v>
       </c>
       <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7330,8 +7805,10 @@
       <c r="D96" t="n">
         <v>8947</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -7382,6 +7859,9 @@
         <v>0</v>
       </c>
       <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,8 +7882,10 @@
       <c r="D97" t="n">
         <v>19746</v>
       </c>
-      <c r="E97" t="n">
-        <v>0</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -7454,6 +7936,9 @@
         <v>0</v>
       </c>
       <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7474,8 +7959,10 @@
       <c r="D98" t="n">
         <v>15135</v>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -7526,6 +8013,9 @@
         <v>0</v>
       </c>
       <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7546,8 +8036,10 @@
       <c r="D99" t="n">
         <v>5289</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -7598,6 +8090,9 @@
         <v>0</v>
       </c>
       <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7618,8 +8113,10 @@
       <c r="D100" t="n">
         <v>9020</v>
       </c>
-      <c r="E100" t="n">
-        <v>2</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -7670,6 +8167,9 @@
         <v>0</v>
       </c>
       <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7690,8 +8190,10 @@
       <c r="D101" t="n">
         <v>12999</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -7742,6 +8244,9 @@
         <v>0</v>
       </c>
       <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7762,8 +8267,10 @@
       <c r="D102" t="n">
         <v>11520</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -7814,6 +8321,9 @@
         <v>0</v>
       </c>
       <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7834,8 +8344,10 @@
       <c r="D103" t="n">
         <v>16290</v>
       </c>
-      <c r="E103" t="n">
-        <v>1</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -7886,6 +8398,9 @@
         <v>0</v>
       </c>
       <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7906,8 +8421,10 @@
       <c r="D104" t="n">
         <v>13676</v>
       </c>
-      <c r="E104" t="n">
-        <v>0</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -7958,6 +8475,9 @@
         <v>0</v>
       </c>
       <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7978,8 +8498,10 @@
       <c r="D105" t="n">
         <v>12281</v>
       </c>
-      <c r="E105" t="n">
-        <v>0</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -8030,6 +8552,9 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8050,8 +8575,10 @@
       <c r="D106" t="n">
         <v>15572</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -8102,6 +8629,9 @@
         <v>0</v>
       </c>
       <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8122,8 +8652,10 @@
       <c r="D107" t="n">
         <v>14625</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -8174,6 +8706,9 @@
         <v>0</v>
       </c>
       <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8194,8 +8729,10 @@
       <c r="D108" t="n">
         <v>15441</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -8246,6 +8783,9 @@
         <v>0</v>
       </c>
       <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8266,8 +8806,10 @@
       <c r="D109" t="n">
         <v>12110</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -8318,6 +8860,9 @@
         <v>0</v>
       </c>
       <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8338,8 +8883,10 @@
       <c r="D110" t="n">
         <v>20208</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -8390,6 +8937,9 @@
         <v>0</v>
       </c>
       <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8410,8 +8960,10 @@
       <c r="D111" t="n">
         <v>15133</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1800s</t>
+        </is>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -8462,6 +9014,9 @@
         <v>0</v>
       </c>
       <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8482,8 +9037,10 @@
       <c r="D112" t="n">
         <v>19134</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -8534,6 +9091,9 @@
         <v>0</v>
       </c>
       <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8554,8 +9114,10 @@
       <c r="D113" t="n">
         <v>19595</v>
       </c>
-      <c r="E113" t="n">
-        <v>0</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -8606,6 +9168,9 @@
         <v>0</v>
       </c>
       <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8626,8 +9191,10 @@
       <c r="D114" t="n">
         <v>9756</v>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -8678,6 +9245,9 @@
         <v>0</v>
       </c>
       <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8698,8 +9268,10 @@
       <c r="D115" t="n">
         <v>14876</v>
       </c>
-      <c r="E115" t="n">
-        <v>1</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -8750,6 +9322,9 @@
         <v>0</v>
       </c>
       <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8770,11 +9345,13 @@
       <c r="D116" t="n">
         <v>17406</v>
       </c>
-      <c r="E116" t="n">
-        <v>2</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -8822,6 +9399,9 @@
         <v>0</v>
       </c>
       <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8842,8 +9422,10 @@
       <c r="D117" t="n">
         <v>25033</v>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -8894,6 +9476,9 @@
         <v>0</v>
       </c>
       <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8914,8 +9499,10 @@
       <c r="D118" t="n">
         <v>23575</v>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -8966,6 +9553,9 @@
         <v>0</v>
       </c>
       <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8986,8 +9576,10 @@
       <c r="D119" t="n">
         <v>27382</v>
       </c>
-      <c r="E119" t="n">
-        <v>0</v>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -9038,6 +9630,9 @@
         <v>0</v>
       </c>
       <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9058,8 +9653,10 @@
       <c r="D120" t="n">
         <v>19376</v>
       </c>
-      <c r="E120" t="n">
-        <v>0</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -9110,6 +9707,9 @@
         <v>0</v>
       </c>
       <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9130,8 +9730,10 @@
       <c r="D121" t="n">
         <v>13889</v>
       </c>
-      <c r="E121" t="n">
-        <v>0</v>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -9182,6 +9784,9 @@
         <v>0</v>
       </c>
       <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9202,8 +9807,10 @@
       <c r="D122" t="n">
         <v>6763</v>
       </c>
-      <c r="E122" t="n">
-        <v>0</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -9254,6 +9861,9 @@
         <v>0</v>
       </c>
       <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9274,8 +9884,10 @@
       <c r="D123" t="n">
         <v>23702</v>
       </c>
-      <c r="E123" t="n">
-        <v>0</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -9326,6 +9938,9 @@
         <v>0</v>
       </c>
       <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9346,8 +9961,10 @@
       <c r="D124" t="n">
         <v>25125</v>
       </c>
-      <c r="E124" t="n">
-        <v>0</v>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -9398,6 +10015,9 @@
         <v>0</v>
       </c>
       <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9418,8 +10038,10 @@
       <c r="D125" t="n">
         <v>3552</v>
       </c>
-      <c r="E125" t="n">
-        <v>0</v>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -9470,6 +10092,9 @@
         <v>0</v>
       </c>
       <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9490,8 +10115,10 @@
       <c r="D126" t="n">
         <v>4533</v>
       </c>
-      <c r="E126" t="n">
-        <v>0</v>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -9542,6 +10169,9 @@
         <v>0</v>
       </c>
       <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9562,8 +10192,10 @@
       <c r="D127" t="n">
         <v>7686</v>
       </c>
-      <c r="E127" t="n">
-        <v>0</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -9614,6 +10246,9 @@
         <v>0</v>
       </c>
       <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9634,8 +10269,10 @@
       <c r="D128" t="n">
         <v>2117</v>
       </c>
-      <c r="E128" t="n">
-        <v>0</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -9686,6 +10323,9 @@
         <v>0</v>
       </c>
       <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9706,8 +10346,10 @@
       <c r="D129" t="n">
         <v>3913</v>
       </c>
-      <c r="E129" t="n">
-        <v>0</v>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -9758,6 +10400,9 @@
         <v>0</v>
       </c>
       <c r="V129" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9778,8 +10423,10 @@
       <c r="D130" t="n">
         <v>5465</v>
       </c>
-      <c r="E130" t="n">
-        <v>0</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -9830,6 +10477,9 @@
         <v>0</v>
       </c>
       <c r="V130" t="n">
+        <v>0</v>
+      </c>
+      <c r="W130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9850,8 +10500,10 @@
       <c r="D131" t="n">
         <v>4755</v>
       </c>
-      <c r="E131" t="n">
-        <v>12</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -9866,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -9878,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -9902,6 +10554,9 @@
         <v>0</v>
       </c>
       <c r="V131" t="n">
+        <v>0</v>
+      </c>
+      <c r="W131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9922,8 +10577,10 @@
       <c r="D132" t="n">
         <v>2705</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -9974,6 +10631,9 @@
         <v>0</v>
       </c>
       <c r="V132" t="n">
+        <v>0</v>
+      </c>
+      <c r="W132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9994,8 +10654,10 @@
       <c r="D133" t="n">
         <v>5604</v>
       </c>
-      <c r="E133" t="n">
-        <v>0</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -10046,6 +10708,9 @@
         <v>0</v>
       </c>
       <c r="V133" t="n">
+        <v>0</v>
+      </c>
+      <c r="W133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10066,8 +10731,10 @@
       <c r="D134" t="n">
         <v>5744</v>
       </c>
-      <c r="E134" t="n">
-        <v>0</v>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -10118,6 +10785,9 @@
         <v>0</v>
       </c>
       <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10138,8 +10808,10 @@
       <c r="D135" t="n">
         <v>6701</v>
       </c>
-      <c r="E135" t="n">
-        <v>0</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -10190,6 +10862,9 @@
         <v>0</v>
       </c>
       <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10210,8 +10885,10 @@
       <c r="D136" t="n">
         <v>6964</v>
       </c>
-      <c r="E136" t="n">
-        <v>0</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -10262,6 +10939,9 @@
         <v>0</v>
       </c>
       <c r="V136" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10282,8 +10962,10 @@
       <c r="D137" t="n">
         <v>10843</v>
       </c>
-      <c r="E137" t="n">
-        <v>0</v>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -10334,6 +11016,9 @@
         <v>0</v>
       </c>
       <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10354,8 +11039,10 @@
       <c r="D138" t="n">
         <v>10308</v>
       </c>
-      <c r="E138" t="n">
-        <v>0</v>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -10406,6 +11093,9 @@
         <v>0</v>
       </c>
       <c r="V138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10426,8 +11116,10 @@
       <c r="D139" t="n">
         <v>8777</v>
       </c>
-      <c r="E139" t="n">
-        <v>0</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -10478,6 +11170,9 @@
         <v>0</v>
       </c>
       <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10498,8 +11193,10 @@
       <c r="D140" t="n">
         <v>8060</v>
       </c>
-      <c r="E140" t="n">
-        <v>0</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -10550,6 +11247,9 @@
         <v>0</v>
       </c>
       <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10570,8 +11270,10 @@
       <c r="D141" t="n">
         <v>10987</v>
       </c>
-      <c r="E141" t="n">
-        <v>2</v>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -10622,6 +11324,9 @@
         <v>0</v>
       </c>
       <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10642,8 +11347,10 @@
       <c r="D142" t="n">
         <v>4540</v>
       </c>
-      <c r="E142" t="n">
-        <v>0</v>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -10694,6 +11401,9 @@
         <v>0</v>
       </c>
       <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10714,8 +11424,10 @@
       <c r="D143" t="n">
         <v>5680</v>
       </c>
-      <c r="E143" t="n">
-        <v>0</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -10766,6 +11478,9 @@
         <v>0</v>
       </c>
       <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10786,8 +11501,10 @@
       <c r="D144" t="n">
         <v>980</v>
       </c>
-      <c r="E144" t="n">
-        <v>0</v>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -10838,6 +11555,9 @@
         <v>0</v>
       </c>
       <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10858,8 +11578,10 @@
       <c r="D145" t="n">
         <v>2223</v>
       </c>
-      <c r="E145" t="n">
-        <v>0</v>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -10910,6 +11632,9 @@
         <v>0</v>
       </c>
       <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10930,8 +11655,10 @@
       <c r="D146" t="n">
         <v>3515</v>
       </c>
-      <c r="E146" t="n">
-        <v>0</v>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -10982,6 +11709,9 @@
         <v>0</v>
       </c>
       <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11002,8 +11732,10 @@
       <c r="D147" t="n">
         <v>3810</v>
       </c>
-      <c r="E147" t="n">
-        <v>0</v>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -11054,6 +11786,9 @@
         <v>0</v>
       </c>
       <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11074,8 +11809,10 @@
       <c r="D148" t="n">
         <v>2730</v>
       </c>
-      <c r="E148" t="n">
-        <v>1</v>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -11126,6 +11863,9 @@
         <v>0</v>
       </c>
       <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11146,8 +11886,10 @@
       <c r="D149" t="n">
         <v>4677</v>
       </c>
-      <c r="E149" t="n">
-        <v>1</v>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -11198,6 +11940,9 @@
         <v>0</v>
       </c>
       <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11218,8 +11963,10 @@
       <c r="D150" t="n">
         <v>3736</v>
       </c>
-      <c r="E150" t="n">
-        <v>0</v>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -11270,6 +12017,9 @@
         <v>0</v>
       </c>
       <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11290,8 +12040,10 @@
       <c r="D151" t="n">
         <v>3170</v>
       </c>
-      <c r="E151" t="n">
-        <v>1</v>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -11342,6 +12094,9 @@
         <v>0</v>
       </c>
       <c r="V151" t="n">
+        <v>0</v>
+      </c>
+      <c r="W151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11362,8 +12117,10 @@
       <c r="D152" t="n">
         <v>3288</v>
       </c>
-      <c r="E152" t="n">
-        <v>0</v>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -11414,6 +12171,9 @@
         <v>0</v>
       </c>
       <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11434,8 +12194,10 @@
       <c r="D153" t="n">
         <v>3470</v>
       </c>
-      <c r="E153" t="n">
-        <v>0</v>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -11486,6 +12248,9 @@
         <v>0</v>
       </c>
       <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11506,8 +12271,10 @@
       <c r="D154" t="n">
         <v>4533</v>
       </c>
-      <c r="E154" t="n">
-        <v>0</v>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -11558,6 +12325,9 @@
         <v>0</v>
       </c>
       <c r="V154" t="n">
+        <v>0</v>
+      </c>
+      <c r="W154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11578,8 +12348,10 @@
       <c r="D155" t="n">
         <v>3755</v>
       </c>
-      <c r="E155" t="n">
-        <v>0</v>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -11630,6 +12402,9 @@
         <v>0</v>
       </c>
       <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11650,8 +12425,10 @@
       <c r="D156" t="n">
         <v>8124</v>
       </c>
-      <c r="E156" t="n">
-        <v>0</v>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -11702,6 +12479,9 @@
         <v>0</v>
       </c>
       <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11722,8 +12502,10 @@
       <c r="D157" t="n">
         <v>27708</v>
       </c>
-      <c r="E157" t="n">
-        <v>0</v>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -11774,6 +12556,9 @@
         <v>0</v>
       </c>
       <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11794,8 +12579,10 @@
       <c r="D158" t="n">
         <v>6033</v>
       </c>
-      <c r="E158" t="n">
-        <v>0</v>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -11846,6 +12633,9 @@
         <v>0</v>
       </c>
       <c r="V158" t="n">
+        <v>0</v>
+      </c>
+      <c r="W158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11866,8 +12656,10 @@
       <c r="D159" t="n">
         <v>5091</v>
       </c>
-      <c r="E159" t="n">
-        <v>0</v>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -11918,6 +12710,9 @@
         <v>0</v>
       </c>
       <c r="V159" t="n">
+        <v>0</v>
+      </c>
+      <c r="W159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11938,8 +12733,10 @@
       <c r="D160" t="n">
         <v>3397</v>
       </c>
-      <c r="E160" t="n">
-        <v>0</v>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -11990,6 +12787,9 @@
         <v>0</v>
       </c>
       <c r="V160" t="n">
+        <v>0</v>
+      </c>
+      <c r="W160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12010,8 +12810,10 @@
       <c r="D161" t="n">
         <v>5126</v>
       </c>
-      <c r="E161" t="n">
-        <v>0</v>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -12062,6 +12864,9 @@
         <v>0</v>
       </c>
       <c r="V161" t="n">
+        <v>0</v>
+      </c>
+      <c r="W161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12082,8 +12887,10 @@
       <c r="D162" t="n">
         <v>3988</v>
       </c>
-      <c r="E162" t="n">
-        <v>0</v>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -12134,6 +12941,9 @@
         <v>0</v>
       </c>
       <c r="V162" t="n">
+        <v>0</v>
+      </c>
+      <c r="W162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12154,8 +12964,10 @@
       <c r="D163" t="n">
         <v>5334</v>
       </c>
-      <c r="E163" t="n">
-        <v>0</v>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -12206,6 +13018,9 @@
         <v>0</v>
       </c>
       <c r="V163" t="n">
+        <v>0</v>
+      </c>
+      <c r="W163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12226,8 +13041,10 @@
       <c r="D164" t="n">
         <v>9599</v>
       </c>
-      <c r="E164" t="n">
-        <v>0</v>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -12278,6 +13095,9 @@
         <v>0</v>
       </c>
       <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12298,8 +13118,10 @@
       <c r="D165" t="n">
         <v>6941</v>
       </c>
-      <c r="E165" t="n">
-        <v>0</v>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -12350,6 +13172,9 @@
         <v>0</v>
       </c>
       <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12370,8 +13195,10 @@
       <c r="D166" t="n">
         <v>5990</v>
       </c>
-      <c r="E166" t="n">
-        <v>0</v>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -12422,6 +13249,9 @@
         <v>0</v>
       </c>
       <c r="V166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12442,14 +13272,16 @@
       <c r="D167" t="n">
         <v>7250</v>
       </c>
-      <c r="E167" t="n">
-        <v>0</v>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -12494,6 +13326,9 @@
         <v>0</v>
       </c>
       <c r="V167" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12514,8 +13349,10 @@
       <c r="D168" t="n">
         <v>8245</v>
       </c>
-      <c r="E168" t="n">
-        <v>2</v>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -12566,6 +13403,9 @@
         <v>0</v>
       </c>
       <c r="V168" t="n">
+        <v>0</v>
+      </c>
+      <c r="W168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12586,8 +13426,10 @@
       <c r="D169" t="n">
         <v>4145</v>
       </c>
-      <c r="E169" t="n">
-        <v>0</v>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -12638,6 +13480,9 @@
         <v>0</v>
       </c>
       <c r="V169" t="n">
+        <v>0</v>
+      </c>
+      <c r="W169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12658,14 +13503,16 @@
       <c r="D170" t="n">
         <v>4927</v>
       </c>
-      <c r="E170" t="n">
-        <v>0</v>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -12710,6 +13557,9 @@
         <v>0</v>
       </c>
       <c r="V170" t="n">
+        <v>0</v>
+      </c>
+      <c r="W170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12730,8 +13580,10 @@
       <c r="D171" t="n">
         <v>4889</v>
       </c>
-      <c r="E171" t="n">
-        <v>0</v>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -12782,6 +13634,9 @@
         <v>0</v>
       </c>
       <c r="V171" t="n">
+        <v>0</v>
+      </c>
+      <c r="W171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12802,8 +13657,10 @@
       <c r="D172" t="n">
         <v>5648</v>
       </c>
-      <c r="E172" t="n">
-        <v>0</v>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -12854,6 +13711,9 @@
         <v>0</v>
       </c>
       <c r="V172" t="n">
+        <v>0</v>
+      </c>
+      <c r="W172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12874,14 +13734,16 @@
       <c r="D173" t="n">
         <v>5165</v>
       </c>
-      <c r="E173" t="n">
-        <v>0</v>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12893,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
@@ -12923,9 +13785,12 @@
         <v>0</v>
       </c>
       <c r="U173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12946,14 +13811,16 @@
       <c r="D174" t="n">
         <v>6188</v>
       </c>
-      <c r="E174" t="n">
-        <v>0</v>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12998,6 +13865,9 @@
         <v>0</v>
       </c>
       <c r="V174" t="n">
+        <v>0</v>
+      </c>
+      <c r="W174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13018,14 +13888,16 @@
       <c r="D175" t="n">
         <v>6436</v>
       </c>
-      <c r="E175" t="n">
-        <v>0</v>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -13070,6 +13942,9 @@
         <v>0</v>
       </c>
       <c r="V175" t="n">
+        <v>0</v>
+      </c>
+      <c r="W175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13090,14 +13965,16 @@
       <c r="D176" t="n">
         <v>5326</v>
       </c>
-      <c r="E176" t="n">
-        <v>0</v>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -13142,6 +14019,9 @@
         <v>0</v>
       </c>
       <c r="V176" t="n">
+        <v>0</v>
+      </c>
+      <c r="W176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13162,8 +14042,10 @@
       <c r="D177" t="n">
         <v>3187</v>
       </c>
-      <c r="E177" t="n">
-        <v>0</v>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -13181,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177" t="n">
         <v>0</v>
@@ -13214,6 +14096,9 @@
         <v>0</v>
       </c>
       <c r="V177" t="n">
+        <v>0</v>
+      </c>
+      <c r="W177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13234,8 +14119,10 @@
       <c r="D178" t="n">
         <v>4394</v>
       </c>
-      <c r="E178" t="n">
-        <v>0</v>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -13286,6 +14173,9 @@
         <v>0</v>
       </c>
       <c r="V178" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13306,8 +14196,10 @@
       <c r="D179" t="n">
         <v>5255</v>
       </c>
-      <c r="E179" t="n">
-        <v>2</v>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -13322,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -13352,12 +14244,15 @@
         <v>0</v>
       </c>
       <c r="T179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U179" t="n">
         <v>0</v>
       </c>
       <c r="V179" t="n">
+        <v>0</v>
+      </c>
+      <c r="W179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13378,14 +14273,16 @@
       <c r="D180" t="n">
         <v>7111</v>
       </c>
-      <c r="E180" t="n">
-        <v>0</v>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -13430,6 +14327,9 @@
         <v>0</v>
       </c>
       <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13450,8 +14350,10 @@
       <c r="D181" t="n">
         <v>4855</v>
       </c>
-      <c r="E181" t="n">
-        <v>0</v>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -13502,6 +14404,9 @@
         <v>0</v>
       </c>
       <c r="V181" t="n">
+        <v>0</v>
+      </c>
+      <c r="W181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13522,8 +14427,10 @@
       <c r="D182" t="n">
         <v>4107</v>
       </c>
-      <c r="E182" t="n">
-        <v>0</v>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -13574,6 +14481,9 @@
         <v>0</v>
       </c>
       <c r="V182" t="n">
+        <v>0</v>
+      </c>
+      <c r="W182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13594,8 +14504,10 @@
       <c r="D183" t="n">
         <v>4455</v>
       </c>
-      <c r="E183" t="n">
-        <v>0</v>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -13646,6 +14558,9 @@
         <v>0</v>
       </c>
       <c r="V183" t="n">
+        <v>0</v>
+      </c>
+      <c r="W183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13666,8 +14581,10 @@
       <c r="D184" t="n">
         <v>4475</v>
       </c>
-      <c r="E184" t="n">
-        <v>0</v>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -13718,6 +14635,9 @@
         <v>0</v>
       </c>
       <c r="V184" t="n">
+        <v>0</v>
+      </c>
+      <c r="W184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13738,8 +14658,10 @@
       <c r="D185" t="n">
         <v>3967</v>
       </c>
-      <c r="E185" t="n">
-        <v>0</v>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -13790,6 +14712,9 @@
         <v>0</v>
       </c>
       <c r="V185" t="n">
+        <v>0</v>
+      </c>
+      <c r="W185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13810,8 +14735,10 @@
       <c r="D186" t="n">
         <v>1649</v>
       </c>
-      <c r="E186" t="n">
-        <v>0</v>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -13862,6 +14789,9 @@
         <v>0</v>
       </c>
       <c r="V186" t="n">
+        <v>0</v>
+      </c>
+      <c r="W186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13882,8 +14812,10 @@
       <c r="D187" t="n">
         <v>5154</v>
       </c>
-      <c r="E187" t="n">
-        <v>1</v>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -13934,6 +14866,9 @@
         <v>0</v>
       </c>
       <c r="V187" t="n">
+        <v>0</v>
+      </c>
+      <c r="W187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13954,8 +14889,10 @@
       <c r="D188" t="n">
         <v>4103</v>
       </c>
-      <c r="E188" t="n">
-        <v>0</v>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -14006,6 +14943,9 @@
         <v>0</v>
       </c>
       <c r="V188" t="n">
+        <v>0</v>
+      </c>
+      <c r="W188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14026,8 +14966,10 @@
       <c r="D189" t="n">
         <v>4951</v>
       </c>
-      <c r="E189" t="n">
-        <v>0</v>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -14078,6 +15020,9 @@
         <v>0</v>
       </c>
       <c r="V189" t="n">
+        <v>0</v>
+      </c>
+      <c r="W189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14098,14 +15043,16 @@
       <c r="D190" t="n">
         <v>4640</v>
       </c>
-      <c r="E190" t="n">
-        <v>0</v>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -14150,6 +15097,9 @@
         <v>0</v>
       </c>
       <c r="V190" t="n">
+        <v>0</v>
+      </c>
+      <c r="W190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14170,8 +15120,10 @@
       <c r="D191" t="n">
         <v>4580</v>
       </c>
-      <c r="E191" t="n">
-        <v>0</v>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -14222,6 +15174,9 @@
         <v>0</v>
       </c>
       <c r="V191" t="n">
+        <v>0</v>
+      </c>
+      <c r="W191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14242,14 +15197,16 @@
       <c r="D192" t="n">
         <v>3243</v>
       </c>
-      <c r="E192" t="n">
-        <v>0</v>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -14294,6 +15251,9 @@
         <v>0</v>
       </c>
       <c r="V192" t="n">
+        <v>0</v>
+      </c>
+      <c r="W192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14314,14 +15274,16 @@
       <c r="D193" t="n">
         <v>3396</v>
       </c>
-      <c r="E193" t="n">
-        <v>0</v>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -14366,6 +15328,9 @@
         <v>0</v>
       </c>
       <c r="V193" t="n">
+        <v>0</v>
+      </c>
+      <c r="W193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14386,14 +15351,16 @@
       <c r="D194" t="n">
         <v>33558</v>
       </c>
-      <c r="E194" t="n">
-        <v>0</v>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -14405,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L194" t="n">
         <v>0</v>
@@ -14417,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="O194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P194" t="n">
         <v>0</v>
@@ -14438,6 +15405,9 @@
         <v>0</v>
       </c>
       <c r="V194" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14458,8 +15428,10 @@
       <c r="D195" t="n">
         <v>5161</v>
       </c>
-      <c r="E195" t="n">
-        <v>0</v>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -14510,6 +15482,9 @@
         <v>0</v>
       </c>
       <c r="V195" t="n">
+        <v>0</v>
+      </c>
+      <c r="W195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14530,14 +15505,16 @@
       <c r="D196" t="n">
         <v>5536</v>
       </c>
-      <c r="E196" t="n">
-        <v>0</v>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -14582,6 +15559,9 @@
         <v>0</v>
       </c>
       <c r="V196" t="n">
+        <v>0</v>
+      </c>
+      <c r="W196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14602,14 +15582,16 @@
       <c r="D197" t="n">
         <v>4944</v>
       </c>
-      <c r="E197" t="n">
-        <v>0</v>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F197" t="n">
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -14654,6 +15636,9 @@
         <v>0</v>
       </c>
       <c r="V197" t="n">
+        <v>0</v>
+      </c>
+      <c r="W197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14674,8 +15659,10 @@
       <c r="D198" t="n">
         <v>4213</v>
       </c>
-      <c r="E198" t="n">
-        <v>0</v>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -14693,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198" t="n">
         <v>0</v>
@@ -14726,6 +15713,9 @@
         <v>0</v>
       </c>
       <c r="V198" t="n">
+        <v>0</v>
+      </c>
+      <c r="W198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14746,8 +15736,10 @@
       <c r="D199" t="n">
         <v>3473</v>
       </c>
-      <c r="E199" t="n">
-        <v>0</v>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -14798,6 +15790,9 @@
         <v>0</v>
       </c>
       <c r="V199" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14818,8 +15813,10 @@
       <c r="D200" t="n">
         <v>3770</v>
       </c>
-      <c r="E200" t="n">
-        <v>0</v>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -14870,6 +15867,9 @@
         <v>0</v>
       </c>
       <c r="V200" t="n">
+        <v>0</v>
+      </c>
+      <c r="W200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14890,14 +15890,16 @@
       <c r="D201" t="n">
         <v>4826</v>
       </c>
-      <c r="E201" t="n">
-        <v>0</v>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -14942,6 +15944,9 @@
         <v>0</v>
       </c>
       <c r="V201" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14962,14 +15967,16 @@
       <c r="D202" t="n">
         <v>4821</v>
       </c>
-      <c r="E202" t="n">
-        <v>0</v>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -15014,6 +16021,9 @@
         <v>0</v>
       </c>
       <c r="V202" t="n">
+        <v>0</v>
+      </c>
+      <c r="W202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15034,14 +16044,16 @@
       <c r="D203" t="n">
         <v>3811</v>
       </c>
-      <c r="E203" t="n">
-        <v>0</v>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F203" t="n">
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -15086,6 +16098,9 @@
         <v>0</v>
       </c>
       <c r="V203" t="n">
+        <v>0</v>
+      </c>
+      <c r="W203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15106,8 +16121,10 @@
       <c r="D204" t="n">
         <v>3968</v>
       </c>
-      <c r="E204" t="n">
-        <v>0</v>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -15158,6 +16175,9 @@
         <v>0</v>
       </c>
       <c r="V204" t="n">
+        <v>0</v>
+      </c>
+      <c r="W204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15178,8 +16198,10 @@
       <c r="D205" t="n">
         <v>5082</v>
       </c>
-      <c r="E205" t="n">
-        <v>0</v>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -15230,6 +16252,9 @@
         <v>0</v>
       </c>
       <c r="V205" t="n">
+        <v>0</v>
+      </c>
+      <c r="W205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15250,8 +16275,10 @@
       <c r="D206" t="n">
         <v>6999</v>
       </c>
-      <c r="E206" t="n">
-        <v>0</v>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -15302,6 +16329,9 @@
         <v>0</v>
       </c>
       <c r="V206" t="n">
+        <v>0</v>
+      </c>
+      <c r="W206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15322,14 +16352,16 @@
       <c r="D207" t="n">
         <v>7378</v>
       </c>
-      <c r="E207" t="n">
-        <v>0</v>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -15374,6 +16406,9 @@
         <v>0</v>
       </c>
       <c r="V207" t="n">
+        <v>0</v>
+      </c>
+      <c r="W207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15394,8 +16429,10 @@
       <c r="D208" t="n">
         <v>9173</v>
       </c>
-      <c r="E208" t="n">
-        <v>0</v>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -15446,6 +16483,9 @@
         <v>0</v>
       </c>
       <c r="V208" t="n">
+        <v>0</v>
+      </c>
+      <c r="W208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15466,14 +16506,16 @@
       <c r="D209" t="n">
         <v>6328</v>
       </c>
-      <c r="E209" t="n">
-        <v>0</v>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -15518,6 +16560,9 @@
         <v>0</v>
       </c>
       <c r="V209" t="n">
+        <v>0</v>
+      </c>
+      <c r="W209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15538,14 +16583,16 @@
       <c r="D210" t="n">
         <v>6749</v>
       </c>
-      <c r="E210" t="n">
-        <v>0</v>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -15590,6 +16637,9 @@
         <v>0</v>
       </c>
       <c r="V210" t="n">
+        <v>0</v>
+      </c>
+      <c r="W210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15610,14 +16660,16 @@
       <c r="D211" t="n">
         <v>7277</v>
       </c>
-      <c r="E211" t="n">
-        <v>1</v>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -15662,6 +16714,9 @@
         <v>0</v>
       </c>
       <c r="V211" t="n">
+        <v>0</v>
+      </c>
+      <c r="W211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15682,14 +16737,16 @@
       <c r="D212" t="n">
         <v>7475</v>
       </c>
-      <c r="E212" t="n">
-        <v>0</v>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1900s</t>
+        </is>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -15734,6 +16791,9 @@
         <v>0</v>
       </c>
       <c r="V212" t="n">
+        <v>0</v>
+      </c>
+      <c r="W212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15754,8 +16814,10 @@
       <c r="D213" t="n">
         <v>9052</v>
       </c>
-      <c r="E213" t="n">
-        <v>0</v>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -15806,6 +16868,9 @@
         <v>0</v>
       </c>
       <c r="V213" t="n">
+        <v>1</v>
+      </c>
+      <c r="W213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15826,8 +16891,10 @@
       <c r="D214" t="n">
         <v>4362</v>
       </c>
-      <c r="E214" t="n">
-        <v>0</v>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -15878,6 +16945,9 @@
         <v>0</v>
       </c>
       <c r="V214" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15898,8 +16968,10 @@
       <c r="D215" t="n">
         <v>3825</v>
       </c>
-      <c r="E215" t="n">
-        <v>0</v>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -15947,9 +17019,12 @@
         <v>0</v>
       </c>
       <c r="U215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V215" t="n">
+        <v>0</v>
+      </c>
+      <c r="W215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15970,8 +17045,10 @@
       <c r="D216" t="n">
         <v>5368</v>
       </c>
-      <c r="E216" t="n">
-        <v>0</v>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -16022,6 +17099,9 @@
         <v>0</v>
       </c>
       <c r="V216" t="n">
+        <v>0</v>
+      </c>
+      <c r="W216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16042,8 +17122,10 @@
       <c r="D217" t="n">
         <v>5167</v>
       </c>
-      <c r="E217" t="n">
-        <v>0</v>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -16094,6 +17176,9 @@
         <v>0</v>
       </c>
       <c r="V217" t="n">
+        <v>0</v>
+      </c>
+      <c r="W217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16114,14 +17199,16 @@
       <c r="D218" t="n">
         <v>5045</v>
       </c>
-      <c r="E218" t="n">
-        <v>0</v>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F218" t="n">
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -16166,6 +17253,9 @@
         <v>0</v>
       </c>
       <c r="V218" t="n">
+        <v>0</v>
+      </c>
+      <c r="W218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16186,8 +17276,10 @@
       <c r="D219" t="n">
         <v>5287</v>
       </c>
-      <c r="E219" t="n">
-        <v>0</v>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -16238,6 +17330,9 @@
         <v>0</v>
       </c>
       <c r="V219" t="n">
+        <v>0</v>
+      </c>
+      <c r="W219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16258,14 +17353,16 @@
       <c r="D220" t="n">
         <v>5552</v>
       </c>
-      <c r="E220" t="n">
-        <v>6</v>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F220" t="n">
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -16310,6 +17407,9 @@
         <v>0</v>
       </c>
       <c r="V220" t="n">
+        <v>0</v>
+      </c>
+      <c r="W220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16330,14 +17430,16 @@
       <c r="D221" t="n">
         <v>5704</v>
       </c>
-      <c r="E221" t="n">
-        <v>0</v>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F221" t="n">
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -16346,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -16382,6 +17484,9 @@
         <v>0</v>
       </c>
       <c r="V221" t="n">
+        <v>0</v>
+      </c>
+      <c r="W221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16402,8 +17507,10 @@
       <c r="D222" t="n">
         <v>6053</v>
       </c>
-      <c r="E222" t="n">
-        <v>0</v>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -16454,6 +17561,9 @@
         <v>0</v>
       </c>
       <c r="V222" t="n">
+        <v>0</v>
+      </c>
+      <c r="W222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16474,8 +17584,10 @@
       <c r="D223" t="n">
         <v>7221</v>
       </c>
-      <c r="E223" t="n">
-        <v>0</v>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -16526,6 +17638,9 @@
         <v>0</v>
       </c>
       <c r="V223" t="n">
+        <v>0</v>
+      </c>
+      <c r="W223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16546,14 +17661,16 @@
       <c r="D224" t="n">
         <v>6867</v>
       </c>
-      <c r="E224" t="n">
-        <v>0</v>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F224" t="n">
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -16598,6 +17715,9 @@
         <v>0</v>
       </c>
       <c r="V224" t="n">
+        <v>0</v>
+      </c>
+      <c r="W224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16618,8 +17738,10 @@
       <c r="D225" t="n">
         <v>7026</v>
       </c>
-      <c r="E225" t="n">
-        <v>0</v>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -16670,6 +17792,9 @@
         <v>0</v>
       </c>
       <c r="V225" t="n">
+        <v>0</v>
+      </c>
+      <c r="W225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16690,8 +17815,10 @@
       <c r="D226" t="n">
         <v>6783</v>
       </c>
-      <c r="E226" t="n">
-        <v>0</v>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -16742,6 +17869,9 @@
         <v>0</v>
       </c>
       <c r="V226" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16762,14 +17892,16 @@
       <c r="D227" t="n">
         <v>6987</v>
       </c>
-      <c r="E227" t="n">
-        <v>0</v>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -16814,6 +17946,9 @@
         <v>0</v>
       </c>
       <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16834,14 +17969,16 @@
       <c r="D228" t="n">
         <v>6568</v>
       </c>
-      <c r="E228" t="n">
-        <v>0</v>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F228" t="n">
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -16850,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -16886,6 +18023,9 @@
         <v>0</v>
       </c>
       <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16906,8 +18046,10 @@
       <c r="D229" t="n">
         <v>6025</v>
       </c>
-      <c r="E229" t="n">
-        <v>0</v>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -16959,6 +18101,9 @@
       </c>
       <c r="V229" t="n">
         <v>0</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -16978,14 +18123,16 @@
       <c r="D230" t="n">
         <v>4903</v>
       </c>
-      <c r="E230" t="n">
-        <v>0</v>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -17030,6 +18177,9 @@
         <v>0</v>
       </c>
       <c r="V230" t="n">
+        <v>0</v>
+      </c>
+      <c r="W230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17050,8 +18200,10 @@
       <c r="D231" t="n">
         <v>5862</v>
       </c>
-      <c r="E231" t="n">
-        <v>0</v>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -17102,6 +18254,9 @@
         <v>0</v>
       </c>
       <c r="V231" t="n">
+        <v>0</v>
+      </c>
+      <c r="W231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17122,14 +18277,16 @@
       <c r="D232" t="n">
         <v>5249</v>
       </c>
-      <c r="E232" t="n">
-        <v>1</v>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -17174,6 +18331,9 @@
         <v>0</v>
       </c>
       <c r="V232" t="n">
+        <v>0</v>
+      </c>
+      <c r="W232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17194,14 +18354,16 @@
       <c r="D233" t="n">
         <v>5917</v>
       </c>
-      <c r="E233" t="n">
-        <v>0</v>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -17246,6 +18408,9 @@
         <v>0</v>
       </c>
       <c r="V233" t="n">
+        <v>0</v>
+      </c>
+      <c r="W233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17266,14 +18431,16 @@
       <c r="D234" t="n">
         <v>7945</v>
       </c>
-      <c r="E234" t="n">
-        <v>0</v>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F234" t="n">
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -17318,6 +18485,9 @@
         <v>0</v>
       </c>
       <c r="V234" t="n">
+        <v>0</v>
+      </c>
+      <c r="W234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17338,14 +18508,16 @@
       <c r="D235" t="n">
         <v>7661</v>
       </c>
-      <c r="E235" t="n">
-        <v>4</v>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F235" t="n">
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -17390,6 +18562,9 @@
         <v>0</v>
       </c>
       <c r="V235" t="n">
+        <v>0</v>
+      </c>
+      <c r="W235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17410,14 +18585,16 @@
       <c r="D236" t="n">
         <v>9223</v>
       </c>
-      <c r="E236" t="n">
-        <v>0</v>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2000s</t>
+        </is>
       </c>
       <c r="F236" t="n">
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -17462,6 +18639,9 @@
         <v>0</v>
       </c>
       <c r="V236" t="n">
+        <v>0</v>
+      </c>
+      <c r="W236" t="n">
         <v>0</v>
       </c>
     </row>
